--- a/data/raw/authoring.xlsx
+++ b/data/raw/authoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benoit Loze\Desktop\99_CapstoneProject_Folders\00_GithubRepository\liverpool_csck700_capstone_project\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EB7AF95A-D914-4BD7-8E1D-5B80D54A5BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAA6698-E40E-4BE1-AC3A-3EC97124EB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{8B352821-A851-4093-8E29-D26ED0831F3A}"/>
+    <workbookView xWindow="31992" yWindow="2232" windowWidth="19200" windowHeight="9972" activeTab="2" xr2:uid="{8B352821-A851-4093-8E29-D26ED0831F3A}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="1" r:id="rId1"/>
@@ -970,11 +970,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -984,7 +983,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1775,7 +1773,7 @@
   <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1863,7 +1861,7 @@
       <c r="S1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>52</v>
       </c>
       <c r="U1" s="2" t="s">
@@ -1895,7 +1893,7 @@
       <c r="F2" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>7.5</v>
       </c>
       <c r="H2" t="s">
@@ -1939,7 +1937,7 @@
       <c r="F3" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>2.16</v>
       </c>
       <c r="H3" t="s">
@@ -1983,7 +1981,7 @@
       <c r="F4" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>7</v>
       </c>
       <c r="H4" t="s">
@@ -2027,7 +2025,7 @@
       <c r="F5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>7</v>
       </c>
       <c r="H5" t="s">
@@ -2071,7 +2069,7 @@
       <c r="F6" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>114</v>
       </c>
       <c r="I6" t="s">
@@ -2112,7 +2110,7 @@
       <c r="F7" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>119</v>
       </c>
       <c r="I7" t="s">
@@ -2153,7 +2151,7 @@
       <c r="F8" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>124</v>
       </c>
       <c r="H8" t="s">
@@ -2194,7 +2192,7 @@
       <c r="F9" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>130</v>
       </c>
       <c r="I9" t="s">
@@ -2220,7 +2218,7 @@
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="9">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{124140D0-98C7-4A36-88A4-ECCE8268450D}">
           <x14:formula1>
             <xm:f>data_validation!$A$2:$A$10</xm:f>
@@ -2374,7 +2372,7 @@
       <c r="S1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>52</v>
       </c>
       <c r="U1" s="2" t="s">
@@ -2482,7 +2480,7 @@
       <c r="F4" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>19</v>
       </c>
       <c r="H4" t="s">
@@ -2567,7 +2565,7 @@
       <c r="F6" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>153</v>
       </c>
       <c r="I6" t="s">
@@ -2608,7 +2606,7 @@
       <c r="F7" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>158</v>
       </c>
       <c r="I7" t="s">
@@ -2649,7 +2647,7 @@
       <c r="F8" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>11</v>
       </c>
       <c r="H8" t="s">
@@ -2693,7 +2691,7 @@
       <c r="F9" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>12400</v>
       </c>
       <c r="H9" t="s">
@@ -2737,7 +2735,7 @@
       <c r="F10" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>90</v>
       </c>
       <c r="H10" t="s">
@@ -2778,7 +2776,7 @@
       <c r="F11" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>600</v>
       </c>
       <c r="H11" t="s">
@@ -2867,7 +2865,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8D3D5F-BDFA-4F29-A570-47159DD84706}">
-  <dimension ref="A1:AP10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
@@ -2900,7 +2898,7 @@
     <col min="23" max="23" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
@@ -2958,7 +2956,7 @@
       <c r="S1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>52</v>
       </c>
       <c r="U1" s="2" t="s">
@@ -2971,7 +2969,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>177</v>
       </c>
@@ -2990,7 +2988,7 @@
       <c r="F2" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>28</v>
       </c>
       <c r="H2" t="s">
@@ -3002,17 +3000,13 @@
       <c r="J2" t="b">
         <v>1</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" t="s">
         <v>180</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" t="s">
         <v>181</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="M2"/>
       <c r="R2" t="s">
         <v>182</v>
       </c>
@@ -3022,30 +3016,8 @@
       <c r="T2" t="s">
         <v>184</v>
       </c>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>185</v>
       </c>
@@ -3076,10 +3048,10 @@
       <c r="J3" t="b">
         <v>1</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" t="s">
         <v>180</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" t="s">
         <v>189</v>
       </c>
       <c r="R3" t="s">
@@ -3092,7 +3064,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>192</v>
       </c>
@@ -3105,13 +3077,13 @@
       <c r="D4" t="s">
         <v>193</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.45</v>
       </c>
       <c r="F4" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>0.45</v>
       </c>
       <c r="H4" t="s">
@@ -3136,7 +3108,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>197</v>
       </c>
@@ -3155,7 +3127,7 @@
       <c r="F5" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>25</v>
       </c>
       <c r="H5" t="s">
@@ -3180,7 +3152,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>202</v>
       </c>
@@ -3199,7 +3171,7 @@
       <c r="F6" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>204</v>
       </c>
       <c r="I6" t="s">
@@ -3224,7 +3196,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>209</v>
       </c>
@@ -3243,7 +3215,7 @@
       <c r="F7" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>211</v>
       </c>
       <c r="I7" t="s">
@@ -3268,7 +3240,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>214</v>
       </c>
@@ -3287,7 +3259,7 @@
       <c r="F8" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>75</v>
       </c>
       <c r="H8" t="s">
@@ -3315,7 +3287,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>221</v>
       </c>
@@ -3334,7 +3306,7 @@
       <c r="F9" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>25</v>
       </c>
       <c r="H9" t="s">
@@ -3359,7 +3331,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>226</v>
       </c>
@@ -3470,7 +3442,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C05788-7E65-4477-B978-D688F129C9E7}">
-  <dimension ref="A1:AP7"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -3503,7 +3475,7 @@
     <col min="23" max="23" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
@@ -3561,7 +3533,7 @@
       <c r="S1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>52</v>
       </c>
       <c r="U1" s="2" t="s">
@@ -3574,7 +3546,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>232</v>
       </c>
@@ -3603,17 +3575,13 @@
       <c r="J2" t="b">
         <v>1</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" t="s">
         <v>236</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" t="s">
         <v>237</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="M2"/>
       <c r="R2" t="s">
         <v>81</v>
       </c>
@@ -3623,30 +3591,8 @@
       <c r="T2" t="s">
         <v>239</v>
       </c>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>240</v>
       </c>
@@ -3674,8 +3620,6 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
       <c r="M3" t="s">
         <v>244</v>
       </c>
@@ -3689,7 +3633,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>247</v>
       </c>
@@ -3702,13 +3646,13 @@
       <c r="D4" t="s">
         <v>248</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>248</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>55</v>
       </c>
       <c r="H4" t="s">
@@ -3720,7 +3664,7 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="6" t="s">
         <v>249</v>
       </c>
       <c r="R4" t="s">
@@ -3733,7 +3677,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>252</v>
       </c>
@@ -3752,7 +3696,7 @@
       <c r="F5" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>255</v>
       </c>
       <c r="I5" t="s">
@@ -3774,11 +3718,11 @@
         <v>257</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="G7" s="6"/>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="G7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>

--- a/data/raw/authoring.xlsx
+++ b/data/raw/authoring.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benoit Loze\Desktop\99_CapstoneProject_Folders\00_GithubRepository\liverpool_csck700_capstone_project\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A471B5-F570-4AA6-9813-F64551B5B76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61870A3-E82B-4BB1-A8F0-1A0F4E9945A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{8B352821-A851-4093-8E29-D26ED0831F3A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="6" xr2:uid="{8B352821-A851-4093-8E29-D26ED0831F3A}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="257">
   <si>
     <t>asset_type</t>
   </si>
@@ -188,39 +188,12 @@
     <t>stone_001</t>
   </si>
   <si>
-    <t>absorption</t>
-  </si>
-  <si>
-    <t>≤ 7.5 %</t>
-  </si>
-  <si>
-    <t>§2.2.5</t>
-  </si>
-  <si>
-    <t>ASTM C97</t>
-  </si>
-  <si>
     <t>stone_002</t>
   </si>
   <si>
-    <t>bulk specific gravity</t>
-  </si>
-  <si>
-    <t>≥ 2.16 g/cm³</t>
-  </si>
-  <si>
     <t>stone_003</t>
   </si>
   <si>
-    <t>modulus of rupture</t>
-  </si>
-  <si>
-    <t>≥ 7 MPa</t>
-  </si>
-  <si>
-    <t>ASTM C99</t>
-  </si>
-  <si>
     <t>stone_004</t>
   </si>
   <si>
@@ -233,345 +206,114 @@
     <t>stone_005</t>
   </si>
   <si>
-    <t>weathering classification</t>
-  </si>
-  <si>
-    <t>= suitable for exterior use</t>
-  </si>
-  <si>
-    <t>suitable for exterior use</t>
-  </si>
-  <si>
-    <t>ASTM C568 / C616</t>
-  </si>
-  <si>
     <t>stone_006</t>
   </si>
   <si>
-    <t>resistance to freezing and thawing</t>
-  </si>
-  <si>
-    <t>= pass</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>ASTM C666</t>
-  </si>
-  <si>
     <t>stone_007</t>
   </si>
   <si>
-    <t>joint thickness</t>
-  </si>
-  <si>
-    <t>= 6–10 mm</t>
-  </si>
-  <si>
-    <t>6-10</t>
-  </si>
-  <si>
-    <t>§3.3</t>
-  </si>
-  <si>
     <t>stone_008</t>
   </si>
   <si>
-    <t>finish</t>
-  </si>
-  <si>
-    <t>= smooth machine finish free of tool marks; 4-cut finish (treads); 6-cut finish or equivalent (other surfaces)</t>
-  </si>
-  <si>
-    <t>{smooth machine, 4-cut, 6-cut, equivalent, free of tool marks}</t>
-  </si>
-  <si>
     <t>beam_001</t>
   </si>
   <si>
-    <t>species</t>
-  </si>
-  <si>
-    <t>douglas fir-larch</t>
-  </si>
-  <si>
-    <t>§2.1</t>
-  </si>
-  <si>
     <t>beam_002</t>
   </si>
   <si>
-    <t>grade</t>
-  </si>
-  <si>
-    <t>No.1</t>
-  </si>
-  <si>
     <t>beam_003</t>
   </si>
   <si>
-    <t>moisture content</t>
-  </si>
-  <si>
-    <t>≤ 19%</t>
-  </si>
-  <si>
     <t>beam_004</t>
   </si>
   <si>
-    <t>fire retardant treatment</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>§2.2</t>
-  </si>
-  <si>
     <t>ASTM E84</t>
   </si>
   <si>
     <t>beam_005</t>
   </si>
   <si>
-    <t>preservative treatment</t>
-  </si>
-  <si>
     <t>CCA</t>
   </si>
   <si>
-    <t>AWPA U1</t>
-  </si>
-  <si>
     <t>beam_007</t>
   </si>
   <si>
-    <t>straightness tolerance</t>
-  </si>
-  <si>
-    <t>Lumber shall be free from bow, crook, twist, and cup in excess of grading rules.</t>
-  </si>
-  <si>
-    <t>{"bow_mm_per_2.4m": 6, "crook_mm_per_2.4m": 6, "twist_mm_per_25mm_width_per_2.4m": 6}</t>
-  </si>
-  <si>
-    <t>WWPA / NLGA</t>
-  </si>
-  <si>
     <t>beam_008</t>
   </si>
   <si>
     <t>bending strength</t>
   </si>
   <si>
-    <t>11.0 Mpa</t>
-  </si>
-  <si>
     <t>beam_009</t>
   </si>
   <si>
-    <t>elastic modulus</t>
-  </si>
-  <si>
-    <t>12,400 Mpa</t>
-  </si>
-  <si>
-    <t>beam_010</t>
-  </si>
-  <si>
-    <t>bearing length</t>
-  </si>
-  <si>
-    <t>≥ 90 mm</t>
-  </si>
-  <si>
-    <t>§3</t>
-  </si>
-  <si>
-    <t>beam_011</t>
-  </si>
-  <si>
-    <t>spacing (on center)</t>
-  </si>
-  <si>
-    <t>600 mm</t>
-  </si>
-  <si>
     <t>footing_001</t>
   </si>
   <si>
     <t>compressive strength</t>
   </si>
   <si>
-    <t>28 MPa</t>
-  </si>
-  <si>
     <t>UFGS 03 30 01</t>
   </si>
   <si>
-    <t>§2.5.1, §3.14.3.4</t>
-  </si>
-  <si>
     <t>ASTM C39</t>
   </si>
   <si>
-    <t>footing_002</t>
-  </si>
-  <si>
-    <t>slump</t>
-  </si>
-  <si>
-    <t>75 ± 25 mm</t>
-  </si>
-  <si>
-    <t>75 ± 25</t>
-  </si>
-  <si>
-    <t>§3.14.3.1</t>
-  </si>
-  <si>
-    <t>ASTM C143</t>
-  </si>
-  <si>
     <t>footing_003</t>
   </si>
   <si>
     <t>water cement ratio</t>
   </si>
   <si>
-    <t>§2.5.2.6</t>
-  </si>
-  <si>
-    <t>ACI 211.1, ACI 211.2</t>
-  </si>
-  <si>
     <t>footing_004</t>
   </si>
   <si>
-    <t>nominal maximum aggregate size</t>
-  </si>
-  <si>
-    <t>25 mm</t>
-  </si>
-  <si>
-    <t>§2.3.3.1</t>
-  </si>
-  <si>
     <t>ASTM C33</t>
   </si>
   <si>
     <t>footing_006</t>
   </si>
   <si>
-    <t>rebar grade</t>
-  </si>
-  <si>
-    <t>grade 60</t>
-  </si>
-  <si>
-    <t>§2.6.1</t>
-  </si>
-  <si>
     <t>ASTM A615</t>
   </si>
   <si>
     <t>footing_007</t>
   </si>
   <si>
-    <t>rebar coating</t>
-  </si>
-  <si>
-    <t>uncoated</t>
-  </si>
-  <si>
-    <t>§2.6.1.1, §2.6.1.4</t>
-  </si>
-  <si>
     <t>footing_008</t>
   </si>
   <si>
-    <t>concrete cover to rebar</t>
-  </si>
-  <si>
     <t>≥ 75 mm</t>
   </si>
   <si>
-    <t>§3.5.12</t>
-  </si>
-  <si>
-    <t>ACI 318</t>
-  </si>
-  <si>
     <t>footing_009</t>
   </si>
   <si>
-    <t>dimensional tolerances</t>
-  </si>
-  <si>
-    <t>§3.3.8</t>
-  </si>
-  <si>
-    <t>ACI 117</t>
-  </si>
-  <si>
     <t>footing_010</t>
   </si>
   <si>
-    <t>surface finish</t>
-  </si>
-  <si>
-    <t>standard smooth finish</t>
-  </si>
-  <si>
-    <t>§3.9.3.3</t>
-  </si>
-  <si>
-    <t>ACI 301</t>
-  </si>
-  <si>
     <t>beamshoe_001</t>
   </si>
   <si>
-    <t>base material</t>
-  </si>
-  <si>
-    <t>stainless steel bars and shapes Type 304</t>
-  </si>
-  <si>
-    <t>Type 304</t>
-  </si>
-  <si>
     <t>§2.2.1</t>
   </si>
   <si>
-    <t>ASTM A276/A276M</t>
-  </si>
-  <si>
     <t>beamshoe_002</t>
   </si>
   <si>
-    <t>corrosion protection</t>
-  </si>
-  <si>
-    <t>hot-dip galvanize items</t>
-  </si>
-  <si>
     <t>Z275 (G90)</t>
   </si>
   <si>
     <t>§2.3.1</t>
   </si>
   <si>
-    <t>ASTM A123/A153</t>
-  </si>
-  <si>
     <t>beamshoe_003</t>
   </si>
   <si>
-    <t>anchor bolts</t>
-  </si>
-  <si>
     <t>§2.2.8</t>
   </si>
   <si>
@@ -581,21 +323,6 @@
     <t>beamshoe_004</t>
   </si>
   <si>
-    <t>dissimilar metal protection</t>
-  </si>
-  <si>
-    <t>dissimilar metals</t>
-  </si>
-  <si>
-    <t>MPI 79</t>
-  </si>
-  <si>
-    <t>§3.6</t>
-  </si>
-  <si>
-    <t>ASTM D1187</t>
-  </si>
-  <si>
     <t>target_label</t>
   </si>
   <si>
@@ -768,6 +495,321 @@
   </si>
   <si>
     <t>Free-text remarks for assumptions, edge cases, or reviewer comments.</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>weather exposure</t>
+  </si>
+  <si>
+    <t>fire rating</t>
+  </si>
+  <si>
+    <t>mortar type</t>
+  </si>
+  <si>
+    <t>grout compressive strength</t>
+  </si>
+  <si>
+    <t>thermal resistance</t>
+  </si>
+  <si>
+    <t>≥ 14 MPa (at 28 days minimum for masonry assembly)</t>
+  </si>
+  <si>
+    <t>lightweight / medium / normal weight (ASTM C90 classification)</t>
+  </si>
+  <si>
+    <t>units to include water-repellent admixture for exterior walls</t>
+  </si>
+  <si>
+    <t>equivalent thickness 68–157 mm for 2–4 hour rating (ACI 216.1 Table I)</t>
+  </si>
+  <si>
+    <t>ASTM C270 Type M / S / N (as specified for use)</t>
+  </si>
+  <si>
+    <t>≥ 14 MPa (minimum per ASTM C476 / C1019)</t>
+  </si>
+  <si>
+    <t>typical assembly R-value ≈ 0.2–0.3 m²·K/W per 100 mm CMU (without insulation)</t>
+  </si>
+  <si>
+    <t>{lightweight, medium, normal}</t>
+  </si>
+  <si>
+    <t>water-repellent required for exterior use</t>
+  </si>
+  <si>
+    <t>68–157</t>
+  </si>
+  <si>
+    <t>{M, S, N}</t>
+  </si>
+  <si>
+    <t>0.2–0.3</t>
+  </si>
+  <si>
+    <t>m²·K/W</t>
+  </si>
+  <si>
+    <t>§2.1.1 / §2.1.2 / §3.6.1.2</t>
+  </si>
+  <si>
+    <t>§2.2.3.2.6</t>
+  </si>
+  <si>
+    <t>§2.2.3.2.5</t>
+  </si>
+  <si>
+    <t>§2.2.3.5</t>
+  </si>
+  <si>
+    <t>§2.5.1</t>
+  </si>
+  <si>
+    <t>§2.5.2</t>
+  </si>
+  <si>
+    <t>§2.2.3.2 / §2.2.3.5</t>
+  </si>
+  <si>
+    <t>ASTM C1314 / ASTM C476 / TMS 402</t>
+  </si>
+  <si>
+    <t>ASTM C90 / ASTM C129</t>
+  </si>
+  <si>
+    <t>ASTM C216 / TMS 402</t>
+  </si>
+  <si>
+    <t>ACI 216.1</t>
+  </si>
+  <si>
+    <t>ASTM C270 / ASTM C1714</t>
+  </si>
+  <si>
+    <t>ASTM C476 / ASTM C1019</t>
+  </si>
+  <si>
+    <t>ACI 216.1 / ASHRAE 90.1</t>
+  </si>
+  <si>
+    <t>7,200 – 8,300 kPa (Fb)</t>
+  </si>
+  <si>
+    <t>tensile strength</t>
+  </si>
+  <si>
+    <t>4,800 kPa (Ft)</t>
+  </si>
+  <si>
+    <t>5,400 kPa (Fc)</t>
+  </si>
+  <si>
+    <t>modulus of elasticity</t>
+  </si>
+  <si>
+    <t>8,300 MPa (E)</t>
+  </si>
+  <si>
+    <t>shear strength</t>
+  </si>
+  <si>
+    <t>1,550 kPa (Fv)</t>
+  </si>
+  <si>
+    <t>Fire-retardant treated; ASTM E84</t>
+  </si>
+  <si>
+    <t>preservative retention</t>
+  </si>
+  <si>
+    <t>CCA, AWPA U1</t>
+  </si>
+  <si>
+    <t>durability</t>
+  </si>
+  <si>
+    <t>Natural decay-resistant wood – redwood, cedar, cypress, etc.</t>
+  </si>
+  <si>
+    <t>7.2 – 8.3</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>8,300</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>Durable species</t>
+  </si>
+  <si>
+    <t>§2.1.5.1 + §2.2.3</t>
+  </si>
+  <si>
+    <t>§1.8 / §2.2</t>
+  </si>
+  <si>
+    <t>§1.7 / §2.2</t>
+  </si>
+  <si>
+    <t>§2.1.4</t>
+  </si>
+  <si>
+    <t>AWC NDS</t>
+  </si>
+  <si>
+    <t>ASTM D2344 / ANSI AITC A190.1</t>
+  </si>
+  <si>
+    <t>AWPA U1 / T1</t>
+  </si>
+  <si>
+    <t>AWPA U1 / EN 350</t>
+  </si>
+  <si>
+    <t>kg/m³</t>
+  </si>
+  <si>
+    <t>≥ 7 MP</t>
+  </si>
+  <si>
+    <t>§ 2.2.5</t>
+  </si>
+  <si>
+    <t>maximum aggregate size</t>
+  </si>
+  <si>
+    <t>reinforcement grade</t>
+  </si>
+  <si>
+    <t>concrete cover to reinforcement</t>
+  </si>
+  <si>
+    <t>reinforcement coating</t>
+  </si>
+  <si>
+    <t>reinforcement spacing</t>
+  </si>
+  <si>
+    <t>curing period</t>
+  </si>
+  <si>
+    <t>25 – 35 MPa (@ 28 days)</t>
+  </si>
+  <si>
+    <t>≤ 0.45</t>
+  </si>
+  <si>
+    <t>§ 2.5.2.2 / § 3.14.3.4</t>
+  </si>
+  <si>
+    <t>§ 2.5.2.2</t>
+  </si>
+  <si>
+    <t>ACI 211.1 / ACI 211.2</t>
+  </si>
+  <si>
+    <t>19 – 25 mm</t>
+  </si>
+  <si>
+    <t>§ 2.3.3.1</t>
+  </si>
+  <si>
+    <t>Grade 60 (typ.)</t>
+  </si>
+  <si>
+    <t>§ 2.6.1</t>
+  </si>
+  <si>
+    <t>Epoxy-coated / uncoated</t>
+  </si>
+  <si>
+    <t>epoxy / none</t>
+  </si>
+  <si>
+    <t>§ 2.6.1.2 / § 2.6.1.3 / § 2.6.1.4</t>
+  </si>
+  <si>
+    <t>ASTM A775 / A934 / A1055 / A955</t>
+  </si>
+  <si>
+    <t>§ 3.5.11</t>
+  </si>
+  <si>
+    <t>ACI 315</t>
+  </si>
+  <si>
+    <t>§ 3.5.12</t>
+  </si>
+  <si>
+    <t>ACI 318 Tbl 20.6.1.3.1</t>
+  </si>
+  <si>
+    <t>≥ 7 days (normal cement)</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>§ 3.13.2</t>
+  </si>
+  <si>
+    <t>ACI 301 § 5.3</t>
+  </si>
+  <si>
+    <t>≤ 150 mm (o.c.)</t>
+  </si>
+  <si>
+    <t>material designation</t>
+  </si>
+  <si>
+    <t>coating type</t>
+  </si>
+  <si>
+    <t>strength grade</t>
+  </si>
+  <si>
+    <t>weld type</t>
+  </si>
+  <si>
+    <t>ASTM A36/A36M structural carbon steel</t>
+  </si>
+  <si>
+    <t>Hot-dip galvanized, Z275 (G90)</t>
+  </si>
+  <si>
+    <t>Anchor bolts: F1554 Grade 55</t>
+  </si>
+  <si>
+    <t>Per AWS D1.1/D1.1M – Structural Welding Code (continuous welds on exposed connections)</t>
+  </si>
+  <si>
+    <t>A36</t>
+  </si>
+  <si>
+    <t>F1554 Gr 55</t>
+  </si>
+  <si>
+    <t>AWS D1.1/D1.1M</t>
+  </si>
+  <si>
+    <t>ASTM A36/A36M</t>
+  </si>
+  <si>
+    <t>ASTM A123/A153/A653/A924</t>
+  </si>
+  <si>
+    <t>§3.5</t>
   </si>
 </sst>
 </file>
@@ -775,7 +817,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -879,14 +921,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1224,7 +1268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7657ED-A291-48CE-B04F-C08F4FFC73CD}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1239,330 +1283,330 @@
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>213</v>
+      <c r="C1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>214</v>
+      <c r="C2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>215</v>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>216</v>
+      <c r="C4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>217</v>
+      <c r="C5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>218</v>
+      <c r="C6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>219</v>
+      <c r="C7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>220</v>
+      <c r="C8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>221</v>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>222</v>
+      <c r="C10" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>223</v>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>224</v>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>13</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>225</v>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>14</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>226</v>
+      <c r="C14" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>15</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>227</v>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>16</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>228</v>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>17</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>229</v>
+      <c r="C17" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>18</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>230</v>
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>19</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>231</v>
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>20</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>232</v>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>21</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>233</v>
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>22</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>234</v>
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>23</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>235</v>
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>24</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>236</v>
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>25</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>237</v>
+      <c r="C25" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>26</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>238</v>
+      <c r="C26" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>27</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>239</v>
+      <c r="C27" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>28</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>240</v>
+      <c r="C28" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>29</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>241</v>
+      <c r="C29" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>30</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>242</v>
+      <c r="C30" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1588,44 +1632,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>203</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
-        <v>204</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>114</v>
       </c>
       <c r="D1" t="s">
-        <v>206</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>117</v>
       </c>
       <c r="C2" s="10">
         <v>4.3</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>211</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
       <c r="C3" s="10">
         <v>10</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>212</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1638,10 +1682,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A933F9-53D5-4027-A071-60C2A774A041}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1663,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>186</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1678,7 +1722,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -1695,7 +1739,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -1727,7 +1771,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -1759,7 +1803,7 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -1785,7 +1829,7 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -1807,7 +1851,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
-        <v>42</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -1828,6 +1872,11 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -1837,10 +1886,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D639D42C-2CB5-4D33-A192-35A77F585381}">
-  <dimension ref="A1:AD9"/>
+  <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection sqref="A1:AD9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1855,20 +1904,19 @@
     <col min="8" max="8" width="8.7265625" customWidth="1"/>
     <col min="9" max="9" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7265625" customWidth="1"/>
-    <col min="11" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.26953125" customWidth="1"/>
-    <col min="17" max="17" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.36328125" customWidth="1"/>
+    <col min="12" max="16" width="16.26953125" customWidth="1"/>
+    <col min="17" max="17" width="16.453125" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
+    <col min="19" max="19" width="17" customWidth="1"/>
+    <col min="20" max="20" width="17.54296875" customWidth="1"/>
+    <col min="21" max="21" width="12.453125" customWidth="1"/>
+    <col min="22" max="22" width="14.453125" customWidth="1"/>
+    <col min="23" max="23" width="15" customWidth="1"/>
+    <col min="24" max="24" width="18.1796875" customWidth="1"/>
     <col min="25" max="25" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="29.90625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8.7265625" customWidth="1"/>
@@ -1882,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>186</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1900,52 +1948,52 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>195</v>
+        <v>104</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>196</v>
+        <v>105</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="Y1" s="13" t="s">
         <v>10</v>
@@ -1974,22 +2022,22 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G2" s="3">
-        <v>7.5</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
         <v>33</v>
@@ -1998,36 +2046,33 @@
         <v>27</v>
       </c>
       <c r="Z2" t="s">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="AA2" t="s">
-        <v>52</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="3">
-        <v>2.16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="I3" t="s">
         <v>33</v>
@@ -2036,109 +2081,106 @@
         <v>27</v>
       </c>
       <c r="Z3" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="AA3" t="s">
-        <v>52</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="3">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="Y4" t="s">
         <v>27</v>
       </c>
       <c r="Z4" t="s">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="AA4" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="Y5" t="s">
         <v>27</v>
       </c>
       <c r="Z5" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="AA5" t="s">
-        <v>62</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="I6" t="s">
         <v>33</v>
@@ -2147,33 +2189,36 @@
         <v>27</v>
       </c>
       <c r="Z6" t="s">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="AA6" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>71</v>
+        <v>24</v>
+      </c>
+      <c r="G7" s="3">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
       </c>
       <c r="I7" t="s">
         <v>33</v>
@@ -2182,36 +2227,36 @@
         <v>27</v>
       </c>
       <c r="Z7" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="AA7" t="s">
-        <v>72</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="F8" t="s">
         <v>38</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="I8" t="s">
         <v>26</v>
@@ -2220,40 +2265,52 @@
         <v>27</v>
       </c>
       <c r="Z8" t="s">
-        <v>77</v>
+        <v>177</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>81</v>
+        <v>24</v>
+      </c>
+      <c r="G9" s="3">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="Y9" t="s">
         <v>27</v>
       </c>
       <c r="Z9" t="s">
-        <v>51</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="Z10" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
@@ -2335,10 +2392,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4812D990-46CC-4A23-98D2-C757AE42BF89}">
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:X2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2349,27 +2406,27 @@
     <col min="4" max="4" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="64.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7265625" customWidth="1"/>
-    <col min="11" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.36328125" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="15.81640625" customWidth="1"/>
     <col min="14" max="14" width="16.453125" customWidth="1"/>
-    <col min="15" max="15" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.54296875" customWidth="1"/>
+    <col min="16" max="16" width="12.36328125" customWidth="1"/>
+    <col min="17" max="17" width="13.08984375" customWidth="1"/>
+    <col min="18" max="18" width="15.6328125" customWidth="1"/>
+    <col min="19" max="19" width="17.54296875" customWidth="1"/>
+    <col min="20" max="20" width="18.1796875" customWidth="1"/>
+    <col min="21" max="21" width="13" customWidth="1"/>
+    <col min="22" max="22" width="14.81640625" customWidth="1"/>
+    <col min="23" max="23" width="15.453125" customWidth="1"/>
+    <col min="24" max="24" width="18.1796875" customWidth="1"/>
     <col min="25" max="25" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.54296875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="18.6328125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="5.453125" bestFit="1" customWidth="1"/>
@@ -2383,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>186</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2401,52 +2458,52 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>195</v>
+        <v>104</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>196</v>
+        <v>105</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="Y1" s="13" t="s">
         <v>10</v>
@@ -2469,25 +2526,28 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>198</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
       </c>
       <c r="I2" t="s">
         <v>33</v>
@@ -2496,30 +2556,36 @@
         <v>40</v>
       </c>
       <c r="Z2" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>199</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
       </c>
       <c r="I3" t="s">
         <v>33</v>
@@ -2528,33 +2594,36 @@
         <v>40</v>
       </c>
       <c r="Z3" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
         <v>188</v>
       </c>
-      <c r="D4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" t="s">
-        <v>91</v>
-      </c>
       <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="3">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>200</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
         <v>33</v>
@@ -2563,30 +2632,36 @@
         <v>40</v>
       </c>
       <c r="Z4" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>188</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>94</v>
+        <v>201</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
       </c>
       <c r="I5" t="s">
         <v>33</v>
@@ -2595,33 +2670,36 @@
         <v>40</v>
       </c>
       <c r="Z5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AA5" t="s">
-        <v>96</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>188</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>99</v>
+      <c r="G6" t="s">
+        <v>202</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
       </c>
       <c r="I6" t="s">
         <v>33</v>
@@ -2630,71 +2708,68 @@
         <v>40</v>
       </c>
       <c r="Z6" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="AA6" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>188</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>104</v>
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="Y7" t="s">
         <v>40</v>
       </c>
       <c r="Z7" t="s">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="AA7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>188</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="3">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
+      <c r="G8" t="s">
+        <v>65</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
@@ -2703,33 +2778,33 @@
         <v>40</v>
       </c>
       <c r="Z8" t="s">
-        <v>85</v>
+        <v>206</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>188</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="5">
-        <v>12400</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
+      <c r="G9" t="s">
+        <v>203</v>
       </c>
       <c r="I9" t="s">
         <v>33</v>
@@ -2738,77 +2813,10 @@
         <v>40</v>
       </c>
       <c r="Z9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>188</v>
-      </c>
-      <c r="D10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="3">
-        <v>90</v>
-      </c>
-      <c r="H10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>188</v>
-      </c>
-      <c r="D11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="3">
-        <v>600</v>
-      </c>
-      <c r="H11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>115</v>
+        <v>207</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2820,67 +2828,67 @@
           <x14:formula1>
             <xm:f>data_validation!$F$2:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J11</xm:sqref>
+          <xm:sqref>J2:J9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E3804AAA-70B5-42FF-816E-82206AB5E1DE}">
           <x14:formula1>
             <xm:f>data_validation!$E$2:$E$10</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I11</xm:sqref>
+          <xm:sqref>I2:I9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{08EFBEC0-2C6E-48CB-93A1-924121A62720}">
           <x14:formula1>
             <xm:f>data_validation!$D$2:$D$15</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H11</xm:sqref>
+          <xm:sqref>H2:H9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D779A7EB-9C31-4A8D-9DA8-4B496939066A}">
           <x14:formula1>
             <xm:f>data_validation!$C$2:$C$15</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F11</xm:sqref>
+          <xm:sqref>F2:F9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{59408FFA-D284-46F0-9CF5-5FB10E28A036}">
           <x14:formula1>
             <xm:f>data_validation!$A$2:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B11</xm:sqref>
+          <xm:sqref>B2:B9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6C765BD1-EA5A-4349-907A-9B61D8A06249}">
           <x14:formula1>
             <xm:f>data_validation!$J$2:$J$10</xm:f>
           </x14:formula1>
-          <xm:sqref>AC2:AC11</xm:sqref>
+          <xm:sqref>AC2:AC9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2B4CE2A-2006-4B02-8822-BB1F85598AA4}">
           <x14:formula1>
             <xm:f>data_validation!$I$2:$I$7</xm:f>
           </x14:formula1>
-          <xm:sqref>AB2:AB11</xm:sqref>
+          <xm:sqref>AB2:AB9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AEFCAD2A-A09F-4B81-8ABE-24504CEBAE3E}">
           <x14:formula1>
             <xm:f>data_validation!$H$2:$H$10</xm:f>
           </x14:formula1>
-          <xm:sqref>Y2:Y11</xm:sqref>
+          <xm:sqref>Y2:Y9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0C440887-B8ED-4CB7-83E9-E32CE9979536}">
           <x14:formula1>
             <xm:f>data_validation!$B$2:$B$15</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C11</xm:sqref>
+          <xm:sqref>C2:C9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EFD8FB11-9483-4089-BCF5-E6BAD8CCDD3E}">
           <x14:formula1>
             <xm:f>data_validation!$G$2:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K11</xm:sqref>
+          <xm:sqref>K2:K9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CAC819EF-C18E-4DE3-8AC5-EF95D358F710}">
           <x14:formula1>
             <xm:f>dictionary_keys!$A$2:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>X2:X11</xm:sqref>
+          <xm:sqref>X2:X9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2890,10 +2898,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8D3D5F-BDFA-4F29-A570-47159DD84706}">
-  <dimension ref="A1:AD10"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:X2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2902,29 +2910,29 @@
     <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.36328125" customWidth="1"/>
     <col min="8" max="8" width="5.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7265625" customWidth="1"/>
-    <col min="11" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.36328125" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="15.81640625" customWidth="1"/>
+    <col min="14" max="14" width="16.453125" customWidth="1"/>
+    <col min="15" max="15" width="10.54296875" customWidth="1"/>
+    <col min="16" max="16" width="12.36328125" customWidth="1"/>
+    <col min="17" max="17" width="13.08984375" customWidth="1"/>
+    <col min="18" max="18" width="15.6328125" customWidth="1"/>
+    <col min="19" max="19" width="17.54296875" customWidth="1"/>
+    <col min="20" max="20" width="18.1796875" customWidth="1"/>
+    <col min="21" max="21" width="13" customWidth="1"/>
+    <col min="22" max="22" width="14.81640625" customWidth="1"/>
+    <col min="23" max="23" width="15.453125" customWidth="1"/>
+    <col min="24" max="24" width="19.36328125" customWidth="1"/>
     <col min="25" max="25" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.453125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="18.6328125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="5.453125" bestFit="1" customWidth="1"/>
@@ -2938,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>186</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2956,52 +2964,52 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>195</v>
+        <v>104</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>196</v>
+        <v>105</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="Y1" s="13" t="s">
         <v>10</v>
@@ -3024,25 +3032,25 @@
     </row>
     <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>221</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
@@ -3061,39 +3069,39 @@
       <c r="R2"/>
       <c r="X2"/>
       <c r="Y2" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="Z2" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="AA2" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>222</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>128</v>
+        <v>31</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.45</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
         <v>33</v>
@@ -3101,37 +3109,37 @@
       <c r="Y3" t="s">
         <v>20</v>
       </c>
-      <c r="Z3" t="s">
-        <v>129</v>
+      <c r="Z3" s="15" t="s">
+        <v>224</v>
       </c>
       <c r="AA3" t="s">
-        <v>130</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.45</v>
+        <v>215</v>
+      </c>
+      <c r="E4" t="s">
+        <v>226</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="3">
-        <v>0.45</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
         <v>33</v>
@@ -3139,37 +3147,34 @@
       <c r="Y4" t="s">
         <v>20</v>
       </c>
-      <c r="Z4" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>134</v>
+      <c r="Z4" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA4" s="15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>228</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G5" s="3">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
         <v>33</v>
@@ -3178,33 +3183,33 @@
         <v>20</v>
       </c>
       <c r="Z5" t="s">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="AA5" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>230</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>142</v>
+      <c r="G6" t="s">
+        <v>231</v>
       </c>
       <c r="I6" t="s">
         <v>33</v>
@@ -3213,67 +3218,70 @@
         <v>20</v>
       </c>
       <c r="Z6" t="s">
-        <v>143</v>
+        <v>232</v>
       </c>
       <c r="AA6" t="s">
-        <v>144</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>219</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>242</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>147</v>
+        <v>31</v>
+      </c>
+      <c r="G7" s="3">
+        <v>150</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="Y7" t="s">
         <v>20</v>
       </c>
       <c r="Z7" t="s">
-        <v>148</v>
+        <v>234</v>
       </c>
       <c r="AA7" t="s">
-        <v>144</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>217</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="5">
         <v>75</v>
       </c>
       <c r="H8" t="s">
@@ -3286,87 +3294,53 @@
         <v>20</v>
       </c>
       <c r="Z8" t="s">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="AA8" t="s">
-        <v>153</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="E9" t="s">
-        <v>137</v>
+        <v>238</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="5">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G9" s="3">
+        <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>239</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="Y9" t="s">
         <v>20</v>
       </c>
       <c r="Z9" t="s">
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="AA9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>160</v>
-      </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>162</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="11">
@@ -3374,67 +3348,67 @@
           <x14:formula1>
             <xm:f>data_validation!$H$2:$H$10</xm:f>
           </x14:formula1>
-          <xm:sqref>Y2:Y11</xm:sqref>
+          <xm:sqref>Y2:Y10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{496BA0CA-94C1-4CF6-995C-0B026350ECBB}">
           <x14:formula1>
             <xm:f>data_validation!$J$2:$J$10</xm:f>
           </x14:formula1>
-          <xm:sqref>AC3:AC10</xm:sqref>
+          <xm:sqref>AC3:AC9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{236FF061-B158-4D9D-961B-E13F6A686346}">
           <x14:formula1>
             <xm:f>data_validation!$I$2:$I$7</xm:f>
           </x14:formula1>
-          <xm:sqref>AB3:AB10</xm:sqref>
+          <xm:sqref>AB3:AB9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{09069D8F-1386-4210-9914-30FFBFF54FB2}">
           <x14:formula1>
             <xm:f>data_validation!$F$2:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J10</xm:sqref>
+          <xm:sqref>J2:J9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7B783735-31EB-4BBC-B981-F47EFB496D2F}">
           <x14:formula1>
             <xm:f>data_validation!$D$2:$D$15</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H10</xm:sqref>
+          <xm:sqref>H2:H9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{79C98C43-C52C-433B-B010-63606CDF9074}">
           <x14:formula1>
             <xm:f>data_validation!$C$2:$C$15</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F10</xm:sqref>
+          <xm:sqref>F2:F9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C01E8601-B4FB-45EF-99AF-B464D7A7FAAF}">
           <x14:formula1>
             <xm:f>data_validation!$A$2:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B10</xm:sqref>
+          <xm:sqref>B2:B9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2ED97014-EEB1-4B1F-B70F-272D693B3135}">
           <x14:formula1>
             <xm:f>data_validation!$E$2:$E$10</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I10</xm:sqref>
+          <xm:sqref>I2:I9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{07627788-88A3-4817-B454-38DC596D9748}">
           <x14:formula1>
             <xm:f>data_validation!$B$2:$B$15</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C11</xm:sqref>
+          <xm:sqref>C2:C10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00F114E9-186A-4EAB-A78A-5F3BED553B97}">
           <x14:formula1>
             <xm:f>data_validation!$G$2:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K10</xm:sqref>
+          <xm:sqref>K2:K9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3731D006-AE65-405F-9A61-AAB678D25821}">
           <x14:formula1>
             <xm:f>dictionary_keys!$A$2:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>X2:X10</xm:sqref>
+          <xm:sqref>X2:X9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3446,8 +3420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C05788-7E65-4477-B978-D688F129C9E7}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3456,29 +3430,29 @@
     <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.6328125" customWidth="1"/>
     <col min="10" max="10" width="8.7265625" customWidth="1"/>
-    <col min="11" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.36328125" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="15.81640625" customWidth="1"/>
+    <col min="14" max="14" width="16.453125" customWidth="1"/>
+    <col min="15" max="15" width="10.54296875" customWidth="1"/>
+    <col min="16" max="16" width="12.36328125" customWidth="1"/>
+    <col min="17" max="17" width="13.08984375" customWidth="1"/>
+    <col min="18" max="18" width="15.6328125" customWidth="1"/>
+    <col min="19" max="19" width="17.54296875" customWidth="1"/>
+    <col min="20" max="20" width="18.1796875" customWidth="1"/>
+    <col min="21" max="21" width="13" customWidth="1"/>
+    <col min="22" max="22" width="14.81640625" customWidth="1"/>
+    <col min="23" max="23" width="15.453125" customWidth="1"/>
+    <col min="24" max="24" width="19.36328125" customWidth="1"/>
     <col min="25" max="25" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.1796875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="18.6328125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="5.453125" bestFit="1" customWidth="1"/>
@@ -3492,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>186</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -3510,52 +3484,52 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>195</v>
+        <v>104</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>196</v>
+        <v>105</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="Y1" s="13" t="s">
         <v>10</v>
@@ -3578,25 +3552,25 @@
     </row>
     <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>243</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>247</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="s">
@@ -3616,33 +3590,33 @@
         <v>34</v>
       </c>
       <c r="Z2" t="s">
-        <v>167</v>
+        <v>86</v>
       </c>
       <c r="AA2" t="s">
-        <v>168</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>190</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>244</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>248</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>172</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s">
         <v>33</v>
@@ -3651,33 +3625,33 @@
         <v>34</v>
       </c>
       <c r="Z3" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="AA3" t="s">
-        <v>174</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>190</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>176</v>
+        <v>245</v>
+      </c>
+      <c r="E4" t="s">
+        <v>249</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="3">
-        <v>55</v>
+      <c r="G4" t="s">
+        <v>252</v>
       </c>
       <c r="H4" t="s">
         <v>46</v>
@@ -3690,33 +3664,33 @@
         <v>34</v>
       </c>
       <c r="Z4" t="s">
-        <v>177</v>
+        <v>91</v>
       </c>
       <c r="AA4" t="s">
-        <v>178</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>190</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="E5" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>182</v>
+      <c r="G5" t="s">
+        <v>253</v>
       </c>
       <c r="I5" t="s">
         <v>26</v>
@@ -3725,10 +3699,10 @@
         <v>34</v>
       </c>
       <c r="Z5" t="s">
-        <v>183</v>
+        <v>256</v>
       </c>
       <c r="AA5" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
